--- a/R Params.xlsx
+++ b/R Params.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1267D9-D9F5-764C-BC69-6484BD6C4D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="10000" windowHeight="16460" xr2:uid="{825840F9-365F-914A-8199-F6849DC0E7D7}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="10005" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -90,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,31 +431,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381EE0C6-5F7E-3545-B56F-9B3BFAFED717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -481,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -501,7 +495,7 @@
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -521,7 +515,7 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -541,7 +535,7 @@
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -561,7 +555,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -581,7 +575,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -601,7 +595,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -621,7 +615,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -641,7 +635,7 @@
         <v>8.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -661,7 +655,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -681,7 +675,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -701,7 +695,7 @@
         <v>0.14369999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -721,7 +715,7 @@
         <v>0.10340000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -741,7 +735,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -761,7 +755,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -781,7 +775,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -801,7 +795,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -821,7 +815,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -841,7 +835,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -861,7 +855,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -881,7 +875,7 @@
         <v>0.20910000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -901,7 +895,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -921,7 +915,7 @@
         <v>0.20910000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -941,7 +935,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -961,7 +955,7 @@
         <v>0.20910000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -975,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.5629999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="F26">
         <v>0.245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1015,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.5629999999999999</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="F28">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1035,13 +1029,13 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F29">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1054,8 +1048,14 @@
       <c r="D30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1.5417000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1068,14 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>7.46E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1082,8 +1088,14 @@
       <c r="D32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>-1.19</v>
+      </c>
+      <c r="F32">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1096,8 +1108,14 @@
       <c r="D33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>-0.7</v>
+      </c>
+      <c r="F33">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1110,8 +1128,14 @@
       <c r="D34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>-1.19</v>
+      </c>
+      <c r="F34">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1124,8 +1148,14 @@
       <c r="D35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>-0.7</v>
+      </c>
+      <c r="F35">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1138,8 +1168,14 @@
       <c r="D36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>-1.19</v>
+      </c>
+      <c r="F36">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1152,8 +1188,14 @@
       <c r="D37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>-0.7</v>
+      </c>
+      <c r="F37">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1215,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1235,7 @@
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1255,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1275,7 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>5.4199999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1273,7 +1315,7 @@
         <v>0.1031</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1335,7 @@
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1355,7 @@
         <v>6.9900000000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1375,7 @@
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1395,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1415,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1435,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1455,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1475,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1495,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1515,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1493,7 +1535,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1555,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1526,8 +1568,14 @@
       <c r="D56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="F56">
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1540,8 +1588,14 @@
       <c r="D57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>-0.90300000000000002</v>
+      </c>
+      <c r="F57">
+        <v>0.1724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1554,8 +1608,14 @@
       <c r="D58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1568,8 +1628,14 @@
       <c r="D59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="F59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1582,8 +1648,14 @@
       <c r="D60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>2.036</v>
+      </c>
+      <c r="F60">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -1596,8 +1668,14 @@
       <c r="D61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>-0.95899999999999996</v>
+      </c>
+      <c r="F61">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1610,8 +1688,14 @@
       <c r="D62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1624,8 +1708,14 @@
       <c r="D63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>-0.154</v>
+      </c>
+      <c r="F63">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1638,8 +1728,14 @@
       <c r="D64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>1.68</v>
+      </c>
+      <c r="F64">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1652,8 +1748,14 @@
       <c r="D65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>-0.11</v>
+      </c>
+      <c r="F65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1666,8 +1768,14 @@
       <c r="D66" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="F66">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1680,8 +1788,14 @@
       <c r="D67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>-0.20599999999999999</v>
+      </c>
+      <c r="F67">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1694,8 +1808,14 @@
       <c r="D68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1708,8 +1828,14 @@
       <c r="D69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>-0.184</v>
+      </c>
+      <c r="F69">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -1722,8 +1848,14 @@
       <c r="D70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F70">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -1736,8 +1868,14 @@
       <c r="D71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>-0.184</v>
+      </c>
+      <c r="F71">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -1750,8 +1888,14 @@
       <c r="D72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F72">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1764,9 +1908,15 @@
       <c r="D73" t="s">
         <v>17</v>
       </c>
+      <c r="E73">
+        <v>-0.184</v>
+      </c>
+      <c r="F73">
+        <v>0.58799999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F73">
+  <sortState ref="A2:F73">
     <sortCondition ref="C2:C73"/>
     <sortCondition ref="A2:A73"/>
   </sortState>

--- a/R Params.xlsx
+++ b/R Params.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5y" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="18">
   <si>
     <t>ABC</t>
   </si>
@@ -431,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,7 +443,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -489,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.052</v>
+        <v>4.2528490478553902</v>
       </c>
       <c r="F2">
-        <v>6.9500000000000006E-2</v>
+        <v>0.82626375899896098</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -509,10 +510,10 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>-0.76449999999999996</v>
+        <v>0.365933652910928</v>
       </c>
       <c r="F3">
-        <v>0.11749999999999999</v>
+        <v>0.29409173051954102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -529,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.0295999999999998</v>
+        <v>9.8671619397791304</v>
       </c>
       <c r="F4">
-        <v>7.8100000000000003E-2</v>
+        <v>6.0488140241895803</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -549,10 +550,10 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>-1.0490999999999999</v>
+        <v>1.1941061606368899</v>
       </c>
       <c r="F5">
-        <v>0.17599999999999999</v>
+        <v>0.68947086982676298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2.08</v>
+        <v>3.2355586929332301</v>
       </c>
       <c r="F6">
-        <v>0.11</v>
+        <v>0.53226320226156199</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -589,10 +590,10 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>-0.60399999999999998</v>
+        <v>2.2814375712230901E-2</v>
       </c>
       <c r="F7">
-        <v>0.16</v>
+        <v>0.31344587243031802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.4904999999999999</v>
+        <v>2.42433495674369</v>
       </c>
       <c r="F8">
-        <v>0.1072</v>
+        <v>0.25721021872642902</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -629,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>1.9400000000000001E-2</v>
+        <v>0.51059176755966895</v>
       </c>
       <c r="F9">
-        <v>8.2900000000000001E-2</v>
+        <v>0.12145476783461299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -649,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1.573</v>
+        <v>3.1761063917606398</v>
       </c>
       <c r="F10">
-        <v>0.154</v>
+        <v>0.64493247894955996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -669,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>-0.13900000000000001</v>
+        <v>0.603843912312377</v>
       </c>
       <c r="F11">
-        <v>0.14000000000000001</v>
+        <v>0.247066391013992</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -689,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.4502999999999999</v>
+        <v>2.1253070222108001</v>
       </c>
       <c r="F12">
-        <v>0.14369999999999999</v>
+        <v>0.273218049359163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -709,10 +710,10 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>9.4200000000000006E-2</v>
+        <v>0.47036933208005799</v>
       </c>
       <c r="F13">
-        <v>0.10340000000000001</v>
+        <v>0.13874980132450901</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -729,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2.0139999999999998</v>
+        <v>0.24971387381851201</v>
       </c>
       <c r="F14">
-        <v>0.16400000000000001</v>
+        <v>0.29025531436805002</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -749,10 +750,10 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>-0.76900000000000002</v>
+        <v>0.63243130279573301</v>
       </c>
       <c r="F15">
-        <v>0.23899999999999999</v>
+        <v>0.12001911410459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -769,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.962</v>
+        <v>1.5435729848681901</v>
       </c>
       <c r="F16">
-        <v>0.23100000000000001</v>
+        <v>0.80600010383600595</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -789,10 +790,10 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>-0.70399999999999996</v>
+        <v>0.80166354386585403</v>
       </c>
       <c r="F17">
-        <v>0.32100000000000001</v>
+        <v>0.29951867398719001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -809,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2.056</v>
+        <v>-0.13798018328448899</v>
       </c>
       <c r="F18">
-        <v>0.27900000000000003</v>
+        <v>0.29855615990904399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -829,10 +830,10 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.81899999999999995</v>
+        <v>0.53727490010241796</v>
       </c>
       <c r="F19">
-        <v>0.41099999999999998</v>
+        <v>0.12943393336332901</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -849,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2.1175999999999999</v>
+        <v>4.7945583391189803</v>
       </c>
       <c r="F20">
-        <v>9.9500000000000005E-2</v>
+        <v>2.7710393928400499</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -869,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>-1.0392999999999999</v>
+        <v>4.9873921043051397E-2</v>
       </c>
       <c r="F21">
-        <v>0.20910000000000001</v>
+        <v>0.93015844065780895</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -889,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2.1175999999999999</v>
+        <v>4.7945583391189803</v>
       </c>
       <c r="F22">
-        <v>9.9500000000000005E-2</v>
+        <v>2.7710393928400499</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -909,10 +910,10 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>-1.0392999999999999</v>
+        <v>4.9873921043051397E-2</v>
       </c>
       <c r="F23">
-        <v>0.20910000000000001</v>
+        <v>0.93015844065780895</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -929,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>2.1175999999999999</v>
+        <v>4.7945583391189803</v>
       </c>
       <c r="F24">
-        <v>9.9500000000000005E-2</v>
+        <v>2.7710393928400499</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -949,10 +950,10 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>-1.0392999999999999</v>
+        <v>4.9873921043051397E-2</v>
       </c>
       <c r="F25">
-        <v>0.20910000000000001</v>
+        <v>0.93015844065780895</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.56</v>
+        <v>3.94556621969729</v>
       </c>
       <c r="F26">
-        <v>0.245</v>
+        <v>1.2139587139635899</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -989,10 +990,10 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0.95667502187853004</v>
       </c>
       <c r="F27">
-        <v>0.18099999999999999</v>
+        <v>0.32431909945646897</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.6459999999999999</v>
+        <v>3.9269132836324401</v>
       </c>
       <c r="F28">
-        <v>0.53900000000000003</v>
+        <v>2.4077476762666499</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,10 +1030,10 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>0.17299999999999999</v>
+        <v>0.93622102559365505</v>
       </c>
       <c r="F29">
-        <v>0.36499999999999999</v>
+        <v>0.64292333816254699</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.5417000000000001</v>
+        <v>3.95145690598522</v>
       </c>
       <c r="F30">
-        <v>0.27400000000000002</v>
+        <v>1.4056468067744501</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>7.46E-2</v>
+        <v>0.96366693374333601</v>
       </c>
       <c r="F31">
-        <v>0.21</v>
+        <v>0.37560286187592601</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>-1.19</v>
+        <v>-1.1913225501000499</v>
       </c>
       <c r="F32">
-        <v>0.186</v>
+        <v>0.18575444569786601</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,10 +1110,10 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>-0.7</v>
+        <v>-0.70038920581438502</v>
       </c>
       <c r="F33">
-        <v>0.27800000000000002</v>
+        <v>0.278127466634214</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>-1.19</v>
+        <v>-0.91393337950943099</v>
       </c>
       <c r="F34">
-        <v>0.186</v>
+        <v>0.26766635382501103</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>-0.7</v>
+        <v>-1.02580378789101</v>
       </c>
       <c r="F35">
-        <v>0.27800000000000002</v>
+        <v>0.58941349575897295</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>-1.19</v>
+        <v>-1.30550915229602</v>
       </c>
       <c r="F36">
-        <v>0.186</v>
+        <v>0.219134626247457</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,10 +1190,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>-0.7</v>
+        <v>-0.68021303514926001</v>
       </c>
       <c r="F37">
-        <v>0.27800000000000002</v>
+        <v>0.31666884415257102</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2.0459000000000001</v>
+        <v>3.31848750260313</v>
       </c>
       <c r="F38">
-        <v>3.9300000000000002E-2</v>
+        <v>0.31201016604562698</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1229,10 +1230,10 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>-0.8861</v>
+        <v>-0.34714065794698001</v>
       </c>
       <c r="F39">
-        <v>7.4099999999999999E-2</v>
+        <v>0.20675951222164399</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1249,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2.0202</v>
+        <v>3.1466402246195102</v>
       </c>
       <c r="F40">
-        <v>5.79E-2</v>
+        <v>14808607.2306502</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1269,10 +1270,10 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>-0.90969999999999995</v>
+        <v>-4.2075267925640798</v>
       </c>
       <c r="F41">
-        <v>0.1065</v>
+        <v>26320030.641324699</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1289,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2.0684</v>
+        <v>2.9157850166330102</v>
       </c>
       <c r="F42">
-        <v>5.4199999999999998E-2</v>
+        <v>0.245629840573452</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1309,10 +1310,10 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>-0.86050000000000004</v>
+        <v>-0.36207328646119002</v>
       </c>
       <c r="F43">
-        <v>0.1031</v>
+        <v>0.20680364967707801</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1329,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1.8668</v>
+        <v>4.9585397546917296</v>
       </c>
       <c r="F44">
-        <v>5.6899999999999999E-2</v>
+        <v>0.65486405530987002</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1349,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>-0.3982</v>
+        <v>0.73525312371574902</v>
       </c>
       <c r="F45">
-        <v>6.9900000000000004E-2</v>
+        <v>0.166211074082454</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1369,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.8372999999999999</v>
+        <v>4.8628482370644601</v>
       </c>
       <c r="F46">
-        <v>8.0100000000000005E-2</v>
+        <v>1.0056161800664201</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1389,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>-0.47410000000000002</v>
+        <v>0.641321686983502</v>
       </c>
       <c r="F47">
-        <v>0.10199999999999999</v>
+        <v>0.27260952497922097</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1409,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1.8969</v>
+        <v>4.9804183615084003</v>
       </c>
       <c r="F48">
-        <v>8.1000000000000003E-2</v>
+        <v>0.85164351147402795</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1429,10 +1430,10 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>-0.33529999999999999</v>
+        <v>0.78428630381912501</v>
       </c>
       <c r="F49">
-        <v>9.5699999999999993E-2</v>
+        <v>0.20946673442466099</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1449,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.679</v>
+        <v>0.65459870418226895</v>
       </c>
       <c r="F50">
-        <v>0.17699999999999999</v>
+        <v>0.45242973810119902</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1469,10 +1470,10 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>-0.64</v>
+        <v>0.77382024384755099</v>
       </c>
       <c r="F51">
-        <v>0.22800000000000001</v>
+        <v>0.17354317849477399</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1489,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1.859</v>
+        <v>1.8908913911968299</v>
       </c>
       <c r="F52">
-        <v>0.21099999999999999</v>
+        <v>0.97798150791134997</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1509,10 +1510,10 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>-0.76</v>
+        <v>0.90849062473768105</v>
       </c>
       <c r="F53">
-        <v>0.32600000000000001</v>
+        <v>0.33608106229220902</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1529,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1.34</v>
+        <v>-0.102411193854685</v>
       </c>
       <c r="F54">
-        <v>0.24199999999999999</v>
+        <v>0.45216049372751299</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1549,10 +1550,10 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>-0.73499999999999999</v>
+        <v>0.58873039868239596</v>
       </c>
       <c r="F55">
-        <v>0.32200000000000001</v>
+        <v>0.19939019637608801</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1569,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>2.0859999999999999</v>
+        <v>5.8165064730408798</v>
       </c>
       <c r="F56">
-        <v>9.2799999999999994E-2</v>
+        <v>2.8531111130253</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1589,10 +1590,10 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>-0.90300000000000002</v>
+        <v>0.48837973642126098</v>
       </c>
       <c r="F57">
-        <v>0.1724</v>
+        <v>0.67307469264044795</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1609,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>2.1259999999999999</v>
+        <v>5.8165064730408798</v>
       </c>
       <c r="F58">
-        <v>0.13300000000000001</v>
+        <v>2.8531111130253</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1629,10 +1630,10 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>-0.86799999999999999</v>
+        <v>0.48837973642126098</v>
       </c>
       <c r="F59">
-        <v>0.25</v>
+        <v>0.67307469264044795</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1649,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>2.036</v>
+        <v>5.8165064730408798</v>
       </c>
       <c r="F60">
-        <v>0.127</v>
+        <v>2.8531111130253</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1669,10 +1670,10 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>-0.95899999999999996</v>
+        <v>0.48837973642126098</v>
       </c>
       <c r="F61">
-        <v>0.23599999999999999</v>
+        <v>0.67307469264044795</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1689,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1.6439999999999999</v>
+        <v>2.8851398892331499</v>
       </c>
       <c r="F62">
-        <v>0.15</v>
+        <v>0.50859982007372595</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1709,10 +1710,10 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>-0.154</v>
+        <v>0.48760381976388201</v>
       </c>
       <c r="F63">
-        <v>0.13700000000000001</v>
+        <v>0.22990468154452601</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1729,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1.68</v>
+        <v>3.43782705239845</v>
       </c>
       <c r="F64">
-        <v>0.22800000000000001</v>
+        <v>1.0145471289997501</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1749,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>-0.11</v>
+        <v>0.65110816285242301</v>
       </c>
       <c r="F65">
-        <v>0.2</v>
+        <v>0.37036229458403702</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1769,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.6080000000000001</v>
+        <v>2.5099177169350999</v>
       </c>
       <c r="F66">
-        <v>0.19600000000000001</v>
+        <v>0.54419604137633804</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1789,10 +1790,10 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>-0.20599999999999999</v>
+        <v>0.34735651851452398</v>
       </c>
       <c r="F67">
-        <v>0.189</v>
+        <v>0.29277732198429801</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1809,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>2.0699999999999998</v>
+        <v>0.23986488778916801</v>
       </c>
       <c r="F68">
-        <v>0.11799999999999999</v>
+        <v>0.48227972468543101</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1829,10 +1830,10 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>-0.184</v>
+        <v>0.53838227105840397</v>
       </c>
       <c r="F69">
-        <v>0.58799999999999997</v>
+        <v>0.21581834940911801</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1849,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>2.0699999999999998</v>
+        <v>0.20458270276452001</v>
       </c>
       <c r="F70">
-        <v>0.11799999999999999</v>
+        <v>0.75810982688598805</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1869,10 +1870,10 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>-0.184</v>
+        <v>0.51855557058402502</v>
       </c>
       <c r="F71">
-        <v>0.58799999999999997</v>
+        <v>0.34395874853383801</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1889,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>2.0699999999999998</v>
+        <v>0.26002007825611001</v>
       </c>
       <c r="F72">
-        <v>0.11799999999999999</v>
+        <v>0.624448388026561</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1909,10 +1910,10 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>-0.184</v>
+        <v>0.54975561774737203</v>
       </c>
       <c r="F73">
-        <v>0.58799999999999997</v>
+        <v>0.27741815241458001</v>
       </c>
     </row>
   </sheetData>
@@ -1922,4 +1923,1479 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5.0522816750477997</v>
+      </c>
+      <c r="F2">
+        <v>1.4613379095254599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0.52876285521487998</v>
+      </c>
+      <c r="F3">
+        <v>0.36631018315064101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8.6529026539588099</v>
+      </c>
+      <c r="F4">
+        <v>5.42838946798532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>1.0799361831602401</v>
+      </c>
+      <c r="F5">
+        <v>0.69285168150458298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3.8043044926621801</v>
+      </c>
+      <c r="F6">
+        <v>1.1332190421466199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0.18206294562661299</v>
+      </c>
+      <c r="F7">
+        <v>0.43125374083153201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2.1709071455272499</v>
+      </c>
+      <c r="F8">
+        <v>0.25420868510064798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0.408570878550924</v>
+      </c>
+      <c r="F9">
+        <v>0.13032282938781301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2.5873471378850499</v>
+      </c>
+      <c r="F10">
+        <v>0.53640174890444403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0.41230714134679303</v>
+      </c>
+      <c r="F11">
+        <v>0.24970146770926199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.9720644436796999</v>
+      </c>
+      <c r="F12">
+        <v>0.28484997641231402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0.40116612818768199</v>
+      </c>
+      <c r="F13">
+        <v>0.152572125215726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.18815401772337001</v>
+      </c>
+      <c r="F14">
+        <v>0.29177057284305002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0.58264093995196198</v>
+      </c>
+      <c r="F15">
+        <v>0.13058625796604101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.2488247558108101</v>
+      </c>
+      <c r="F16">
+        <v>0.71596914651847299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0.68015936094429197</v>
+      </c>
+      <c r="F17">
+        <v>0.30469978642555201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-0.19090616548889899</v>
+      </c>
+      <c r="F18">
+        <v>0.31096324915012702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0.51299770164016201</v>
+      </c>
+      <c r="F19">
+        <v>0.14214314925920801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3.0681014000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.57480764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>-0.56705850000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.97039443999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3.0681014000000002</v>
+      </c>
+      <c r="F22">
+        <v>1.57480764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>-0.56705850000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.97039443999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3.0681014000000002</v>
+      </c>
+      <c r="F24">
+        <v>1.57480764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>-0.56705850000000002</v>
+      </c>
+      <c r="F25">
+        <v>0.97039443999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3.2931982</v>
+      </c>
+      <c r="F26">
+        <v>1.0609385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>0.81356019999999996</v>
+      </c>
+      <c r="F27">
+        <v>0.32756999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3.1826886999999999</v>
+      </c>
+      <c r="F28">
+        <v>2.0680542000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0.76701149999999996</v>
+      </c>
+      <c r="F29">
+        <v>0.65572660000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3.3274686</v>
+      </c>
+      <c r="F30">
+        <v>1.2351744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0.82843460000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.37832369999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>-1.1913225501000499</v>
+      </c>
+      <c r="F32">
+        <v>0.18575444569786601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>-0.70038920581438502</v>
+      </c>
+      <c r="F33">
+        <v>0.278127466634214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>-0.91393337950943099</v>
+      </c>
+      <c r="F34">
+        <v>0.26766635382501103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>-1.02580378789101</v>
+      </c>
+      <c r="F35">
+        <v>0.58941349575897295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>-1.30550915229602</v>
+      </c>
+      <c r="F36">
+        <v>0.219134626247457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>-0.68021303514926001</v>
+      </c>
+      <c r="F37">
+        <v>0.31666884415257102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>4.7814773559999999</v>
+      </c>
+      <c r="F38">
+        <v>1.2063059039999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>0.163024057</v>
+      </c>
+      <c r="F39">
+        <v>0.34560952299999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1.6426158019999999</v>
+      </c>
+      <c r="F40">
+        <v>155467.27729999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>-7.0395105960000004</v>
+      </c>
+      <c r="F41">
+        <v>4749009.0489999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>4.1360542880000004</v>
+      </c>
+      <c r="F42">
+        <v>0.99456215299999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>0.15775850999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.34295182299999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>4.1120819959999997</v>
+      </c>
+      <c r="F44">
+        <v>0.55695225699999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>0.55769108999999994</v>
+      </c>
+      <c r="F45">
+        <v>0.16862793600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3.9389537799999998</v>
+      </c>
+      <c r="F46">
+        <v>0.83127424299999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>0.429946263</v>
+      </c>
+      <c r="F47">
+        <v>0.277784961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4.1799850200000002</v>
+      </c>
+      <c r="F48">
+        <v>0.73449230200000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0.62320838999999995</v>
+      </c>
+      <c r="F49">
+        <v>0.21205770600000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.54900808999999995</v>
+      </c>
+      <c r="F50">
+        <v>0.42844219300000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>0.71904533900000001</v>
+      </c>
+      <c r="F51">
+        <v>0.17563853200000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1.6707895610000001</v>
+      </c>
+      <c r="F52">
+        <v>0.91048468199999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>0.83412825000000002</v>
+      </c>
+      <c r="F53">
+        <v>0.34021733900000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>-0.13073253000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.442015722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>0.56627355899999998</v>
+      </c>
+      <c r="F55">
+        <v>0.20071062000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>4.3782496000000002</v>
+      </c>
+      <c r="F56">
+        <v>2.1612721000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>0.17782780000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.69204920000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>4.3782496000000002</v>
+      </c>
+      <c r="F58">
+        <v>2.1612721000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>0.17782780000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.69204920000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>4.3782496000000002</v>
+      </c>
+      <c r="F60">
+        <v>2.1612721000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>0.17782780000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.69204920000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2.2990418860850799</v>
+      </c>
+      <c r="F62">
+        <v>0.40733345363071399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>0.24751618598506001</v>
+      </c>
+      <c r="F63">
+        <v>0.236338190812375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>2.6431287025315</v>
+      </c>
+      <c r="F64">
+        <v>0.800441892723468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>0.39596397209470902</v>
+      </c>
+      <c r="F65">
+        <v>0.37860118062054399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2.0907596135998898</v>
+      </c>
+      <c r="F66">
+        <v>0.44850061884227899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>0.13689302195304401</v>
+      </c>
+      <c r="F67">
+        <v>0.30237409510262098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.12258467396714701</v>
+      </c>
+      <c r="F68">
+        <v>0.43330487533427298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>0.43218973542172201</v>
+      </c>
+      <c r="F69">
+        <v>0.21990278746897801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0.13314190828415201</v>
+      </c>
+      <c r="F70">
+        <v>0.71672618209084704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>0.46259053363874097</v>
+      </c>
+      <c r="F71">
+        <v>0.34535065698697498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0.117881211737122</v>
+      </c>
+      <c r="F72">
+        <v>0.54245932094480498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>0.410510361331762</v>
+      </c>
+      <c r="F73">
+        <v>0.28600392813148601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>